--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1459.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1459.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.380776402399966</v>
+        <v>1.153961896896362</v>
       </c>
       <c r="B1">
-        <v>1.560550626919936</v>
+        <v>2.536565780639648</v>
       </c>
       <c r="C1">
-        <v>1.907583486756398</v>
+        <v>4.14187479019165</v>
       </c>
       <c r="D1">
-        <v>3.409122650452533</v>
+        <v>3.487235546112061</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>1.217021107673645</v>
       </c>
     </row>
   </sheetData>
